--- a/CREATE/cocaine_qc_sha.xlsx
+++ b/CREATE/cocaine_qc_sha.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">cohort</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2C05HSSHA10-20180810.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933000120138754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933000120138743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933000120138732</t>
   </si>
   <si>
     <t xml:space="preserve">M564</t>
@@ -851,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -860,10 +884,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -871,6 +895,99 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="n">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="n">
         <v>10</v>
       </c>
     </row>
